--- a/Översikt NORA.xlsx
+++ b/Översikt NORA.xlsx
@@ -572,7 +572,7 @@
         <v>44263</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44438</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44012</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44832</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>45048</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45070</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44439</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>44495</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43403</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43591</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>44172</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44347</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45078</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>45082</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43395</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43397</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43416</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43416</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43430</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43433</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43446</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43480</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>43493</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>43497</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43530</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43531</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43537</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43544</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43549</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43549</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43549</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43567</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43591</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43609</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43634</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43653</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43670</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43671</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43678</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43691</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43717</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>43745</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43749</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43759</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43762</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43802</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43839</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43856</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43871</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43887</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43888</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43893</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43893</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43894</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43903</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43912</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43914</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43917</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43924</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43935</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43935</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43941</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43957</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43957</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>43986</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43993</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43993</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>44005</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>44005</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>44012</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44032</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44053</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>44056</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>44060</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>44060</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>44061</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44071</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>44079</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>44088</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>44099</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>44106</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>44106</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44106</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44106</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>44107</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>44110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>44111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>44125</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>44132</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>44139</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>44153</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>44158</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44172</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>44172</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>44173</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>44173</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>44181</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>44200</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44232</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>44232</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>44235</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44238</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>44238</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44284</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>44292</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>44302</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>44308</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>44347</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>44362</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44375</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>44383</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44410</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44410</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44418</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44419</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44420</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44420</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44425</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44445</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44448</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44448</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44449</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44453</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44476</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>44476</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44491</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44491</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44493</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44503</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44519</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>44523</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>44523</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44530</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44530</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44532</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44533</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44537</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>44560</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>44593</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44606</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44631</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44631</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44714</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>44740</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44743</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44761</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44791</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>44799</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>44807</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44834</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44841</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44851</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>44859</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10602,7 +10602,7 @@
         <v>44864</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>44879</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>44886</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44896</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>44931</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>44937</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44953</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>45000</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>45000</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>45015</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>45019</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>45027</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>45033</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>45049</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         <v>45056</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         <v>45062</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11601,7 +11601,7 @@
         <v>45065</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>45065</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>45070</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>45070</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>45070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>45070</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>45075</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>45076</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>45079</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>45079</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>45082</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>45082</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>45088</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>45090</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>45090</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>45091</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>45104</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>45117</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>45138</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45145</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45147</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45147</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45149</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>

--- a/Översikt NORA.xlsx
+++ b/Översikt NORA.xlsx
@@ -572,7 +572,7 @@
         <v>44263</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44438</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44012</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44832</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>45048</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45070</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44439</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>44495</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43403</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43591</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>44172</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44347</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45078</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>45082</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43395</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43397</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43416</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43416</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43430</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43433</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43446</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43480</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>43493</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>43497</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43530</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43531</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43537</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43544</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43549</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43549</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43549</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43567</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43591</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43609</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43634</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43653</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43670</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43671</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43678</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43691</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43717</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>43745</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43749</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43759</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43762</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43802</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43839</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43856</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43871</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43887</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43888</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43893</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43893</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43894</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43903</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43912</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43914</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43917</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43924</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43935</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43935</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43941</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43957</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43957</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>43986</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43993</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43993</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>44005</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>44005</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>44012</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44032</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44053</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>44056</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>44060</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>44060</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>44061</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44071</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>44079</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>44088</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>44099</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>44106</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>44106</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44106</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44106</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>44107</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>44110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>44111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>44125</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>44132</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>44139</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>44153</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>44158</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44172</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>44172</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>44173</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>44173</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>44181</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>44200</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44232</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>44232</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>44235</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44238</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>44238</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44284</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>44292</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>44302</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>44308</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>44347</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>44362</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44375</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>44383</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44410</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44410</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44418</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44419</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44420</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44420</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44425</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44445</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44448</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44448</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44449</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44453</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44476</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>44476</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44491</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44491</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44493</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44503</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44519</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>44523</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>44523</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44530</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44530</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44532</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44533</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44537</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>44560</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>44593</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44606</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44631</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44631</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44714</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>44740</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44743</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44761</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44791</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>44799</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>44807</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44834</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44841</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44851</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>44859</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10602,7 +10602,7 @@
         <v>44864</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>44879</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>44886</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44896</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>44931</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>44937</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44953</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>45000</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>45000</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>45015</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>45019</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>45027</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>45033</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>45049</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         <v>45056</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         <v>45062</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11601,7 +11601,7 @@
         <v>45065</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>45065</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>45070</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>45070</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>45070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>45070</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>45075</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>45076</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>45079</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>45079</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>45082</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>45082</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>45088</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>45090</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>45090</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>45091</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>45104</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>45117</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>45138</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45145</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45147</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45147</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45149</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>

--- a/Översikt NORA.xlsx
+++ b/Översikt NORA.xlsx
@@ -572,7 +572,7 @@
         <v>44263</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44438</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44012</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44832</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>45048</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45070</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44439</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>44495</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43403</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43591</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>44172</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44347</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45078</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>45082</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43395</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43397</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43416</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43416</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43430</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43433</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43446</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43480</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>43493</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>43497</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43530</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43531</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43537</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43544</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43549</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43549</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43549</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43567</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43591</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43609</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43634</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43653</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43670</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43671</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43678</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43691</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43717</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>43745</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43749</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43759</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43762</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43802</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43839</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43856</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43871</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43887</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43888</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43893</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43893</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43894</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43903</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43912</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43914</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43917</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43924</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43935</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43935</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43941</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43957</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43957</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>43986</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43993</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43993</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>44005</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>44005</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>44012</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44032</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44053</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>44056</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>44060</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>44060</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>44061</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44071</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>44079</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>44088</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>44099</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>44106</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>44106</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44106</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44106</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>44107</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>44110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>44111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>44125</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>44132</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>44139</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>44153</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>44158</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44172</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>44172</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>44173</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>44173</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>44181</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>44200</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44232</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>44232</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>44235</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44238</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>44238</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44284</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>44292</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>44302</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>44308</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>44347</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>44362</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44375</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>44383</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44410</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44410</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44418</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44419</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44420</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44420</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44425</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44445</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44448</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44448</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44449</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44453</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44476</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>44476</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44491</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44491</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44493</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44503</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44519</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>44523</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>44523</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44530</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44530</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44532</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44533</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44537</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>44560</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>44593</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44606</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44631</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44631</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44714</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>44740</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44743</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44761</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44791</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>44799</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>44807</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44834</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44841</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44851</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>44859</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10602,7 +10602,7 @@
         <v>44864</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>44879</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>44886</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44896</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>44931</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>44937</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44953</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>45000</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>45000</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>45015</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>45019</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>45027</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>45033</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>45049</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         <v>45056</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         <v>45062</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11601,7 +11601,7 @@
         <v>45065</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>45065</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>45070</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>45070</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>45070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>45070</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>45075</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>45076</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>45079</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>45079</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>45082</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>45082</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>45088</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>45090</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>45090</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>45091</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>45104</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>45117</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>45138</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45145</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45147</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45147</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45149</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>

--- a/Översikt NORA.xlsx
+++ b/Översikt NORA.xlsx
@@ -572,7 +572,7 @@
         <v>44263</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44438</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44012</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44832</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>45048</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45070</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44439</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>44495</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43403</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43591</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>44172</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44347</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45078</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>45082</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43395</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43397</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43416</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43416</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43430</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43433</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43446</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43480</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>43493</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>43497</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43530</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43531</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43537</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43544</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43549</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43549</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43549</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43567</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43591</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43609</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43634</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43653</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43670</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43671</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43678</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43691</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43717</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>43745</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43749</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43759</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43762</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43802</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43839</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43856</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43871</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43887</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43888</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43893</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43893</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43894</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43903</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43912</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43914</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43917</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43924</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43935</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43935</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43941</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43957</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43957</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>43986</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43993</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43993</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>44005</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>44005</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>44012</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44032</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44053</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>44056</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>44060</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>44060</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>44061</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44071</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>44079</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>44088</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>44099</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>44106</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>44106</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44106</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44106</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>44107</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>44110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>44111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>44125</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>44132</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>44139</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>44153</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>44158</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44172</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>44172</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>44173</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>44173</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>44181</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>44200</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44232</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>44232</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>44235</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44238</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>44238</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44284</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>44292</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>44302</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>44308</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>44347</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>44362</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44375</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>44383</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44410</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44410</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44418</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44419</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44420</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44420</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44425</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44445</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44448</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44448</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44449</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44453</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44476</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>44476</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44491</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44491</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44493</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44503</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44519</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>44523</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>44523</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44530</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44530</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44532</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44533</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44537</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>44560</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>44593</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44606</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44631</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44631</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44714</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>44740</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44743</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44761</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44791</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>44799</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>44807</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44834</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44841</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44851</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>44859</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10602,7 +10602,7 @@
         <v>44864</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>44879</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>44886</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44896</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>44931</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>44937</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44953</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>45000</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>45000</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>45015</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>45019</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>45027</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>45033</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>45049</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         <v>45056</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         <v>45062</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11601,7 +11601,7 @@
         <v>45065</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>45065</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>45070</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>45070</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>45070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>45070</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>45075</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>45076</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>45079</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>45079</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>45082</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>45082</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>45088</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>45090</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>45090</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>45091</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>45104</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>45117</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>45138</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45145</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45147</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45147</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45149</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>

--- a/Översikt NORA.xlsx
+++ b/Översikt NORA.xlsx
@@ -572,7 +572,7 @@
         <v>44263</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44438</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44012</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44832</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>45048</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45070</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44439</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>44495</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43403</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43591</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>44172</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44347</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45078</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>45082</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43395</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43397</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43416</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43416</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43430</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43433</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43446</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43480</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>43493</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>43497</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43530</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43531</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43537</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43544</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43549</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43549</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43549</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43567</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43591</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43609</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43634</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43653</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43670</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43671</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43678</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43691</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43717</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>43745</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43749</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43759</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43762</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43802</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43839</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43856</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43871</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43887</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43888</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43893</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43893</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43894</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43903</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43912</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43914</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43917</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43924</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43935</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43935</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43941</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43957</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43957</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>43986</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43993</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43993</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>44005</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>44005</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>44012</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44032</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44053</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>44056</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>44060</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>44060</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>44061</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44071</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>44079</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>44088</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>44099</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>44106</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>44106</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44106</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44106</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>44107</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>44110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>44111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>44125</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>44132</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>44139</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>44153</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>44158</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44172</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>44172</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>44173</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>44173</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>44181</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>44200</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44232</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>44232</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>44235</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44238</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>44238</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44284</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>44292</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>44302</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>44308</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>44347</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>44362</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44375</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>44383</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44410</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44410</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44418</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44419</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44420</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44420</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44425</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44445</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44448</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44448</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44449</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44453</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44476</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>44476</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44491</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44491</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44493</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44503</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44519</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>44523</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>44523</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44530</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44530</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44532</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44533</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44537</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>44560</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>44593</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44606</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44631</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44631</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44714</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>44740</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44743</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44761</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44791</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>44799</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>44807</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44834</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44841</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44851</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>44859</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10602,7 +10602,7 @@
         <v>44864</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>44879</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>44886</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44896</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>44931</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>44937</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44953</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>45000</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>45000</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>45015</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>45019</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>45027</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>45033</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>45049</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         <v>45056</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         <v>45062</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11601,7 +11601,7 @@
         <v>45065</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>45065</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>45070</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>45070</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>45070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>45070</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>45075</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>45076</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>45079</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>45079</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>45082</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>45082</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>45088</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>45090</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>45090</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>45091</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>45104</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>45117</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>45138</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45145</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45147</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45147</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45149</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>

--- a/Översikt NORA.xlsx
+++ b/Översikt NORA.xlsx
@@ -572,7 +572,7 @@
         <v>44263</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44438</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44012</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44832</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>45048</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45070</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44439</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>44495</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43403</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43591</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>44172</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44347</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45078</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>45082</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43395</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43397</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43416</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43416</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43430</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43433</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43446</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43480</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>43493</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>43497</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43530</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43531</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43537</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43544</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43549</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43549</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43549</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43567</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43591</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43609</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43634</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43653</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43670</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43671</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43678</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43691</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43717</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>43745</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43749</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43759</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43762</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43802</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43839</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43856</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43871</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43887</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43888</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43893</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43893</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43894</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43903</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43912</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43914</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43917</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43924</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43935</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43935</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43941</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43957</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43957</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>43986</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43993</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43993</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>44005</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>44005</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>44012</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44032</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44053</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>44056</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>44060</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>44060</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>44061</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44071</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>44079</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>44088</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>44099</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>44106</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>44106</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44106</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44106</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>44107</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>44110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>44111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>44125</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>44132</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>44139</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>44153</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>44158</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44172</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>44172</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>44173</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>44173</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>44181</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>44200</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44232</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>44232</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>44235</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44238</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>44238</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44284</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>44292</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>44302</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>44308</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>44347</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>44362</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44375</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>44383</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44410</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44410</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44418</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44419</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44420</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44420</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44425</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44445</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44448</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44448</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44449</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44453</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44476</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>44476</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44491</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44491</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44493</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44503</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44519</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>44523</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>44523</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44530</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44530</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44532</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44533</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44537</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>44560</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>44593</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44606</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44631</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44631</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44714</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>44740</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44743</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44761</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44791</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>44799</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>44807</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44834</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44841</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44851</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>44859</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10602,7 +10602,7 @@
         <v>44864</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>44879</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>44886</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44896</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>44931</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>44937</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44953</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>45000</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>45000</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>45015</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>45019</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>45027</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>45033</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>45049</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         <v>45056</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         <v>45062</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11601,7 +11601,7 @@
         <v>45065</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>45065</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>45070</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>45070</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>45070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>45070</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>45075</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>45076</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>45079</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>45079</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>45082</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>45082</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>45088</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>45090</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>45090</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>45091</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>45104</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>45117</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>45138</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45145</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45147</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45147</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45149</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>

--- a/Översikt NORA.xlsx
+++ b/Översikt NORA.xlsx
@@ -572,7 +572,7 @@
         <v>44263</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44438</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44012</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44832</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>45048</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45070</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44439</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>44495</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43403</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43591</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>44172</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44347</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45078</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>45082</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43395</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43397</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43416</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43416</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43430</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43433</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43446</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43480</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>43493</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>43497</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43530</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43531</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43537</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43544</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43549</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43549</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43549</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43567</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43591</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43609</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43634</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43653</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43670</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43671</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43678</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43691</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43717</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>43745</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43749</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43759</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43762</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43802</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43839</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43856</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43871</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43887</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43888</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43893</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43893</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43894</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43903</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43912</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43914</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43917</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43924</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43935</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43935</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43941</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43957</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43957</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>43986</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43993</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43993</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>44005</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>44005</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>44012</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44032</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44053</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>44056</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>44060</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>44060</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>44061</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44071</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>44079</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>44088</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>44099</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>44106</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>44106</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44106</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44106</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>44107</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>44110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>44111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>44125</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>44132</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>44139</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>44153</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>44158</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44172</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>44172</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>44173</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>44173</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>44181</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>44200</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44232</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>44232</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>44235</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44238</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>44238</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44284</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>44292</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>44302</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>44308</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>44347</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>44362</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44375</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>44383</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44410</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44410</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44418</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44419</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44420</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44420</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44425</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44445</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44448</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44448</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44449</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44453</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44476</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>44476</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44491</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44491</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44493</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44503</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44519</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>44523</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>44523</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44530</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44530</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44532</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44533</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44537</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>44560</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>44593</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44606</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44631</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44631</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44714</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>44740</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44743</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44761</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44791</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>44799</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>44807</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44834</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44841</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44851</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>44859</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10602,7 +10602,7 @@
         <v>44864</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>44879</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>44886</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44896</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>44931</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>44937</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44953</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>45000</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>45000</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>45015</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>45019</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>45027</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>45033</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>45049</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         <v>45056</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         <v>45062</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11601,7 +11601,7 @@
         <v>45065</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>45065</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>45070</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>45070</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>45070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>45070</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>45075</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>45076</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>45079</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>45079</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>45082</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>45082</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>45088</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>45090</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>45090</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>45091</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>45104</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>45117</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>45138</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45145</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45147</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45147</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45149</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>

--- a/Översikt NORA.xlsx
+++ b/Översikt NORA.xlsx
@@ -572,7 +572,7 @@
         <v>44263</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44438</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44012</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44832</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>45048</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45070</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44439</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>44495</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43403</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43591</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>44172</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44347</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45078</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>45082</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43395</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43397</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43416</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43416</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43430</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43433</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43446</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43480</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>43493</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>43497</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43530</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43531</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43537</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43544</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43549</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43549</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43549</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43567</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43591</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43609</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43634</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43653</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43670</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43671</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43678</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43691</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43717</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>43745</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43749</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43759</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43762</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43802</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43839</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43856</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43871</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43887</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43888</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43893</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43893</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43894</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43903</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43912</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43914</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43917</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43924</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43935</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43935</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43941</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43957</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43957</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>43986</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43993</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43993</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>44005</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>44005</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>44012</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44032</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44053</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>44056</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>44060</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>44060</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>44061</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44071</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>44079</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>44088</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>44099</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>44106</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>44106</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44106</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44106</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>44107</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>44110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>44111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>44125</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>44132</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>44139</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>44153</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>44158</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44172</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>44172</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>44173</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>44173</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>44181</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>44200</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44232</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>44232</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>44235</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44238</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>44238</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44284</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>44292</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>44302</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>44308</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>44347</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>44362</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44375</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>44383</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44410</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44410</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44418</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44419</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44420</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44420</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44425</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44445</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44448</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44448</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44449</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44453</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44476</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>44476</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44491</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44491</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44493</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44503</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44519</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>44523</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>44523</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44530</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44530</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44532</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44533</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44537</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>44560</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>44593</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44606</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44631</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44631</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44714</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>44740</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44743</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44761</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44791</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>44799</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>44807</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44834</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44841</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44851</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>44859</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10602,7 +10602,7 @@
         <v>44864</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>44879</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>44886</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44896</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>44931</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>44937</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44953</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>45000</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>45000</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>45015</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>45019</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>45027</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>45033</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>45049</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         <v>45056</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         <v>45062</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11601,7 +11601,7 @@
         <v>45065</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>45065</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>45070</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>45070</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>45070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>45070</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>45075</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>45076</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>45079</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>45079</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>45082</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>45082</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>45088</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>45090</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>45090</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>45091</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>45104</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>45117</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>45138</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45145</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45147</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45147</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45149</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>

--- a/Översikt NORA.xlsx
+++ b/Översikt NORA.xlsx
@@ -572,7 +572,7 @@
         <v>44263</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44438</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44012</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44832</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>45048</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45070</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44439</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>44495</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43403</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43591</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>44172</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44347</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45078</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>45082</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43395</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43397</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43416</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43416</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43430</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43433</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43446</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43480</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>43493</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>43497</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43530</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43531</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43537</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43544</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43549</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43549</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43549</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43567</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43591</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43609</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43634</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43653</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43670</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43671</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43678</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43691</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43717</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>43745</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43749</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43759</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43762</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43802</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43839</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43856</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43871</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43887</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43888</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43893</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43893</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43894</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43903</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43912</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43914</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43917</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43924</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43935</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43935</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43941</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43957</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43957</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>43986</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43993</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43993</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>44005</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>44005</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>44012</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44032</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44053</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>44056</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>44060</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>44060</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>44061</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44071</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>44079</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>44088</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>44099</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>44106</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>44106</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44106</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44106</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>44107</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>44110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>44111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>44125</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>44132</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>44139</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>44153</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>44158</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44172</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>44172</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>44173</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>44173</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>44181</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>44200</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44232</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>44232</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>44235</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44238</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>44238</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44284</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>44292</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>44302</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>44308</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>44347</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>44362</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44375</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>44383</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44410</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44410</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44418</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44419</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44420</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44420</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44425</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44445</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44448</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44448</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44449</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44453</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44476</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>44476</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44491</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44491</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44493</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44503</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44519</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>44523</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>44523</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44530</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44530</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44532</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44533</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44537</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>44560</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>44593</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44606</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44631</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44631</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44714</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>44740</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44743</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44761</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44791</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>44799</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>44807</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44834</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44841</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44851</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>44859</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10602,7 +10602,7 @@
         <v>44864</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>44879</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>44886</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44896</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>44931</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>44937</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44953</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>45000</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>45000</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>45015</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>45019</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>45027</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>45033</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>45049</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         <v>45056</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         <v>45062</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11601,7 +11601,7 @@
         <v>45065</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>45065</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>45070</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>45070</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>45070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>45070</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>45075</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>45076</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>45079</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>45079</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>45082</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>45082</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>45088</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>45090</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>45090</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>45091</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>45104</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>45117</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>45138</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45145</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45147</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45147</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45149</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>

--- a/Översikt NORA.xlsx
+++ b/Översikt NORA.xlsx
@@ -572,7 +572,7 @@
         <v>44263</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -633,31 +633,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/artfynd/A 11286-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/artfynd/A 11286-2021.xlsx", "A 11286-2021")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/kartor/A 11286-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/kartor/A 11286-2021.png", "A 11286-2021")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/knärot/A 11286-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/knärot/A 11286-2021.png", "A 11286-2021")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomål/A 11286-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomål/A 11286-2021.docx", "A 11286-2021")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomålsmail/A 11286-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomålsmail/A 11286-2021.docx", "A 11286-2021")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsyn/A 11286-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsyn/A 11286-2021.docx", "A 11286-2021")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsynsmail/A 11286-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsynsmail/A 11286-2021.docx", "A 11286-2021")</f>
         <v/>
       </c>
     </row>
@@ -671,7 +671,7 @@
         <v>44438</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -727,27 +727,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/artfynd/A 44952-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/artfynd/A 44952-2021.xlsx", "A 44952-2021")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/kartor/A 44952-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/kartor/A 44952-2021.png", "A 44952-2021")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomål/A 44952-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomål/A 44952-2021.docx", "A 44952-2021")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomålsmail/A 44952-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomålsmail/A 44952-2021.docx", "A 44952-2021")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsyn/A 44952-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsyn/A 44952-2021.docx", "A 44952-2021")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsynsmail/A 44952-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsynsmail/A 44952-2021.docx", "A 44952-2021")</f>
         <v/>
       </c>
     </row>
@@ -761,7 +761,7 @@
         <v>44012</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -820,27 +820,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/artfynd/A 31180-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/artfynd/A 31180-2020.xlsx", "A 31180-2020")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/kartor/A 31180-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/kartor/A 31180-2020.png", "A 31180-2020")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomål/A 31180-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomål/A 31180-2020.docx", "A 31180-2020")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomålsmail/A 31180-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomålsmail/A 31180-2020.docx", "A 31180-2020")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsyn/A 31180-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsyn/A 31180-2020.docx", "A 31180-2020")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsynsmail/A 31180-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsynsmail/A 31180-2020.docx", "A 31180-2020")</f>
         <v/>
       </c>
     </row>
@@ -854,7 +854,7 @@
         <v>44832</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -908,31 +908,31 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/artfynd/A 42807-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/artfynd/A 42807-2022.xlsx", "A 42807-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/kartor/A 42807-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/kartor/A 42807-2022.png", "A 42807-2022")</f>
         <v/>
       </c>
       <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/knärot/A 42807-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/knärot/A 42807-2022.png", "A 42807-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomål/A 42807-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomål/A 42807-2022.docx", "A 42807-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomålsmail/A 42807-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomålsmail/A 42807-2022.docx", "A 42807-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsyn/A 42807-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsyn/A 42807-2022.docx", "A 42807-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsynsmail/A 42807-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsynsmail/A 42807-2022.docx", "A 42807-2022")</f>
         <v/>
       </c>
     </row>
@@ -946,7 +946,7 @@
         <v>45048</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1000,27 +1000,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/artfynd/A 19071-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/artfynd/A 19071-2023.xlsx", "A 19071-2023")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/kartor/A 19071-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/kartor/A 19071-2023.png", "A 19071-2023")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomål/A 19071-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomål/A 19071-2023.docx", "A 19071-2023")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomålsmail/A 19071-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomålsmail/A 19071-2023.docx", "A 19071-2023")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsyn/A 19071-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsyn/A 19071-2023.docx", "A 19071-2023")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsynsmail/A 19071-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsynsmail/A 19071-2023.docx", "A 19071-2023")</f>
         <v/>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
         <v>45070</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,27 +1088,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/artfynd/A 22408-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/artfynd/A 22408-2023.xlsx", "A 22408-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/kartor/A 22408-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/kartor/A 22408-2023.png", "A 22408-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomål/A 22408-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomål/A 22408-2023.docx", "A 22408-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomålsmail/A 22408-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomålsmail/A 22408-2023.docx", "A 22408-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsyn/A 22408-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsyn/A 22408-2023.docx", "A 22408-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsynsmail/A 22408-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsynsmail/A 22408-2023.docx", "A 22408-2023")</f>
         <v/>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
         <v>44439</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,27 +1175,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/artfynd/A 45233-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/artfynd/A 45233-2021.xlsx", "A 45233-2021")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/kartor/A 45233-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/kartor/A 45233-2021.png", "A 45233-2021")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomål/A 45233-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomål/A 45233-2021.docx", "A 45233-2021")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomålsmail/A 45233-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomålsmail/A 45233-2021.docx", "A 45233-2021")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsyn/A 45233-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsyn/A 45233-2021.docx", "A 45233-2021")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsynsmail/A 45233-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsynsmail/A 45233-2021.docx", "A 45233-2021")</f>
         <v/>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
         <v>44495</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1267,27 +1267,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/artfynd/A 60839-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/artfynd/A 60839-2021.xlsx", "A 60839-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/kartor/A 60839-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/kartor/A 60839-2021.png", "A 60839-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomål/A 60839-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomål/A 60839-2021.docx", "A 60839-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomålsmail/A 60839-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomålsmail/A 60839-2021.docx", "A 60839-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsyn/A 60839-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsyn/A 60839-2021.docx", "A 60839-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsynsmail/A 60839-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsynsmail/A 60839-2021.docx", "A 60839-2021")</f>
         <v/>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
         <v>43403</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,27 +1353,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/artfynd/A 56941-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/artfynd/A 56941-2018.xlsx", "A 56941-2018")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/kartor/A 56941-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/kartor/A 56941-2018.png", "A 56941-2018")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomål/A 56941-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomål/A 56941-2018.docx", "A 56941-2018")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomålsmail/A 56941-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomålsmail/A 56941-2018.docx", "A 56941-2018")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsyn/A 56941-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsyn/A 56941-2018.docx", "A 56941-2018")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsynsmail/A 56941-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsynsmail/A 56941-2018.docx", "A 56941-2018")</f>
         <v/>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
         <v>43591</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1439,27 +1439,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/artfynd/A 22931-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/artfynd/A 22931-2019.xlsx", "A 22931-2019")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/kartor/A 22931-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/kartor/A 22931-2019.png", "A 22931-2019")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomål/A 22931-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomål/A 22931-2019.docx", "A 22931-2019")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomålsmail/A 22931-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomålsmail/A 22931-2019.docx", "A 22931-2019")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsyn/A 22931-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsyn/A 22931-2019.docx", "A 22931-2019")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsynsmail/A 22931-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsynsmail/A 22931-2019.docx", "A 22931-2019")</f>
         <v/>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
         <v>44172</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1524,27 +1524,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/artfynd/A 65156-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/artfynd/A 65156-2020.xlsx", "A 65156-2020")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/kartor/A 65156-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/kartor/A 65156-2020.png", "A 65156-2020")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomål/A 65156-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomål/A 65156-2020.docx", "A 65156-2020")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomålsmail/A 65156-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomålsmail/A 65156-2020.docx", "A 65156-2020")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsyn/A 65156-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsyn/A 65156-2020.docx", "A 65156-2020")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsynsmail/A 65156-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsynsmail/A 65156-2020.docx", "A 65156-2020")</f>
         <v/>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
         <v>44347</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,27 +1609,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/artfynd/A 26328-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/artfynd/A 26328-2021.xlsx", "A 26328-2021")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/kartor/A 26328-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/kartor/A 26328-2021.png", "A 26328-2021")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomål/A 26328-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomål/A 26328-2021.docx", "A 26328-2021")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomålsmail/A 26328-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomålsmail/A 26328-2021.docx", "A 26328-2021")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsyn/A 26328-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsyn/A 26328-2021.docx", "A 26328-2021")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsynsmail/A 26328-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsynsmail/A 26328-2021.docx", "A 26328-2021")</f>
         <v/>
       </c>
     </row>
@@ -1643,7 +1643,7 @@
         <v>45078</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1694,27 +1694,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/artfynd/A 23874-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/artfynd/A 23874-2023.xlsx", "A 23874-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/kartor/A 23874-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/kartor/A 23874-2023.png", "A 23874-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomål/A 23874-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomål/A 23874-2023.docx", "A 23874-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomålsmail/A 23874-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomålsmail/A 23874-2023.docx", "A 23874-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsyn/A 23874-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsyn/A 23874-2023.docx", "A 23874-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsynsmail/A 23874-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsynsmail/A 23874-2023.docx", "A 23874-2023")</f>
         <v/>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
         <v>45082</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1784,31 +1784,31 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/artfynd/A 24356-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/artfynd/A 24356-2023.xlsx", "A 24356-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/kartor/A 24356-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/kartor/A 24356-2023.png", "A 24356-2023")</f>
         <v/>
       </c>
       <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/knärot/A 24356-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/knärot/A 24356-2023.png", "A 24356-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomål/A 24356-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomål/A 24356-2023.docx", "A 24356-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomålsmail/A 24356-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomålsmail/A 24356-2023.docx", "A 24356-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsyn/A 24356-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsyn/A 24356-2023.docx", "A 24356-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsynsmail/A 24356-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsynsmail/A 24356-2023.docx", "A 24356-2023")</f>
         <v/>
       </c>
     </row>
@@ -1822,7 +1822,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43395</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43397</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43416</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43416</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43430</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43433</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43446</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43480</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>43493</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>43497</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43530</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43531</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43537</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43544</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43549</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43549</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43549</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43567</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43591</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43609</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43634</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43653</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43670</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43671</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43678</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43691</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43717</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>43745</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43749</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43759</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43762</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43802</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43839</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43856</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43871</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43887</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43888</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43893</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43893</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43894</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43903</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43912</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43914</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43917</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43924</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43935</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43935</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43941</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43957</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43957</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>43986</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43993</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43993</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>44005</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>44005</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>44012</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44032</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44053</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>44056</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>44060</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>44060</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>44061</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44071</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>44079</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>44088</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>44099</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>44106</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>44106</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44106</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44106</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>44107</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>44110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>44111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>44125</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>44132</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>44139</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>44153</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>44158</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44172</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>44172</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>44173</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>44173</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>44181</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>44200</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44232</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>44232</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>44235</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44238</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>44238</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44284</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>44292</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>44302</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>44308</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>44347</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>44362</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44375</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>44383</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44410</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44410</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44418</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44419</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44420</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44420</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44425</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44445</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44448</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44448</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44449</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44453</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44476</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>44476</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44491</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44491</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44493</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44503</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44519</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>44523</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>44523</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44530</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44530</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44532</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44533</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44537</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>44560</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>44593</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44606</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44631</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44631</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44714</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>44740</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44743</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44761</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44791</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>44799</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>44807</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44834</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44841</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44851</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>44859</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10602,7 +10602,7 @@
         <v>44864</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>44879</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>44886</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44896</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>44931</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>44937</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44953</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>45000</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>45000</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>45015</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>45019</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>45027</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>45033</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>45049</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         <v>45056</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         <v>45062</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11601,7 +11601,7 @@
         <v>45065</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>45065</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>45070</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>45070</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>45070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>45070</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>45075</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>45076</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>45079</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>45079</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>45082</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>45082</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12295,23 +12295,23 @@
       </c>
       <c r="R194" s="2" t="inlineStr"/>
       <c r="U194">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/knärot/A 24355-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/knärot/A 24355-2023.png", "A 24355-2023")</f>
         <v/>
       </c>
       <c r="V194">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomål/A 24355-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomål/A 24355-2023.docx", "A 24355-2023")</f>
         <v/>
       </c>
       <c r="W194">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomålsmail/A 24355-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/klagomålsmail/A 24355-2023.docx", "A 24355-2023")</f>
         <v/>
       </c>
       <c r="X194">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsyn/A 24355-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsyn/A 24355-2023.docx", "A 24355-2023")</f>
         <v/>
       </c>
       <c r="Y194">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsynsmail/A 24355-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORA/tillsynsmail/A 24355-2023.docx", "A 24355-2023")</f>
         <v/>
       </c>
     </row>
@@ -12325,7 +12325,7 @@
         <v>45088</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>45090</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>45090</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>45091</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>45104</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>45117</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>45138</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45145</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45147</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45147</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45149</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>

--- a/Översikt NORA.xlsx
+++ b/Översikt NORA.xlsx
@@ -572,7 +572,7 @@
         <v>44263</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44438</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44012</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44832</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>45048</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45070</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44439</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>44495</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43403</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43591</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>44172</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44347</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45078</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>45082</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43395</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43397</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43416</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43416</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43430</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43433</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43446</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43480</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>43493</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>43497</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43530</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43531</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43537</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43544</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43549</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43549</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43549</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43567</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43591</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43609</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43634</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43653</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43670</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43671</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43678</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43691</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43717</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>43745</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43749</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43759</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43762</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43802</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43839</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43856</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43871</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43887</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43888</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43893</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43893</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43894</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43903</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43912</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43914</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43917</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43924</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43935</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43935</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43941</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43957</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43957</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>43986</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43993</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43993</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>44005</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>44005</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>44012</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44032</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44053</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>44056</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>44060</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>44060</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>44061</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44071</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>44079</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>44088</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>44099</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>44106</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>44106</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44106</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44106</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>44107</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>44110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>44111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>44125</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>44132</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>44139</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>44153</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>44158</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44172</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>44172</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>44173</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>44173</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>44181</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>44200</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44232</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>44232</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>44235</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44238</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>44238</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44284</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>44292</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>44302</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>44308</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>44347</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>44362</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44375</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>44383</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44410</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44410</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44418</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44419</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44420</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44420</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44425</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44445</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44448</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44448</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44449</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44453</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44476</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>44476</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44491</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44491</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44493</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44503</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44519</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>44523</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>44523</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44530</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44530</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44532</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44533</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44537</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>44560</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>44593</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44606</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44631</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44631</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44714</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>44740</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44743</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44761</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44791</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>44799</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>44807</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44834</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44841</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44851</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>44859</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10602,7 +10602,7 @@
         <v>44864</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>44879</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>44886</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44896</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>44931</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>44937</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44953</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>45000</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>45000</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>45015</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>45019</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>45027</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>45033</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>45049</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         <v>45056</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         <v>45062</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11601,7 +11601,7 @@
         <v>45065</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>45065</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>45070</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>45070</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>45070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>45070</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>45075</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>45076</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>45079</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>45079</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>45082</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>45082</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>45088</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>45090</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>45090</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>45091</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>45104</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>45117</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>45138</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45145</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45147</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45147</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45149</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>

--- a/Översikt NORA.xlsx
+++ b/Översikt NORA.xlsx
@@ -572,7 +572,7 @@
         <v>44263</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44438</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44012</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44832</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>45048</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45070</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44439</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>44495</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43403</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43591</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>44172</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44347</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45078</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>45082</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43395</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43397</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43416</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43416</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43430</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43433</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43446</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43480</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>43493</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>43497</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43530</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43531</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43537</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43544</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43549</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43549</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43549</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43567</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43591</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43609</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43634</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43653</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43670</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43671</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43678</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43691</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43717</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>43745</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43749</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43759</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43762</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43802</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43839</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43856</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43871</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43887</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43888</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43893</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43893</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43894</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43903</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43912</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43914</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43917</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43924</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43935</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43935</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43941</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43957</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43957</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>43986</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43993</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43993</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>44005</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>44005</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>44012</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44032</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44053</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>44056</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>44060</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>44060</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>44061</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44071</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>44079</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>44088</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>44099</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>44106</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>44106</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44106</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44106</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>44107</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>44110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>44111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>44125</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>44132</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>44139</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>44153</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>44158</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44172</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>44172</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>44173</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>44173</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>44181</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>44200</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44232</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>44232</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>44235</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44238</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>44238</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44284</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>44292</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>44302</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>44308</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>44347</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>44362</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44375</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>44383</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44410</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44410</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44418</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44419</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44420</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44420</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44425</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44445</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44448</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44448</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44449</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44453</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44476</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>44476</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44491</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44491</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44493</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44503</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44519</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>44523</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>44523</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44530</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44530</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44532</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44533</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44537</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>44560</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>44593</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44606</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44631</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44631</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44714</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>44740</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44743</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44761</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44791</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>44799</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>44807</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44834</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44841</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44851</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>44859</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10602,7 +10602,7 @@
         <v>44864</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>44879</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>44886</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44896</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>44931</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>44937</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44953</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>45000</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>45000</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>45015</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>45019</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>45027</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>45033</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>45049</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         <v>45056</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         <v>45062</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11601,7 +11601,7 @@
         <v>45065</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>45065</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>45070</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>45070</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>45070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>45070</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>45075</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>45076</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>45079</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>45079</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>45082</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>45082</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>45088</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>45090</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>45090</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>45091</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>45104</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>45117</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>45138</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45145</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45147</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45147</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45149</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>

--- a/Översikt NORA.xlsx
+++ b/Översikt NORA.xlsx
@@ -572,7 +572,7 @@
         <v>44263</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44438</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44012</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44832</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>45048</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45070</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44439</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>44495</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43403</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43591</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>44172</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44347</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45078</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>45082</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43395</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43397</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43416</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43416</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43430</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43433</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43446</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43480</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>43493</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>43497</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43530</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43531</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43537</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43544</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43549</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43549</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43549</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43567</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43591</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43609</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43634</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43653</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43670</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43671</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43678</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43691</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43717</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>43745</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43749</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43759</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43762</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43802</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43839</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43856</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43871</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43887</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43888</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43893</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43893</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43894</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43903</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43912</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43914</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43917</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43924</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43935</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43935</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43941</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43957</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43957</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>43986</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43993</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43993</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>44005</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>44005</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>44012</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44032</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44053</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>44056</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>44060</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>44060</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>44061</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44071</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>44079</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>44088</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>44099</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>44106</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>44106</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44106</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44106</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>44107</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>44110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>44111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>44125</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>44132</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>44139</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>44153</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>44158</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44172</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>44172</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>44173</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>44173</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>44181</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>44200</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44232</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>44232</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>44235</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44238</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>44238</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44284</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>44292</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>44302</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>44308</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>44347</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>44362</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44375</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>44383</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44410</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44410</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44418</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44419</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44420</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44420</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44425</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44445</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44448</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44448</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44449</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44453</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44476</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>44476</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44491</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44491</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44493</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44503</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44519</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>44523</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>44523</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44530</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44530</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44532</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44533</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44537</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>44560</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>44593</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44606</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44631</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44631</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44714</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>44740</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44743</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44761</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44791</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>44799</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>44807</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44834</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44841</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44851</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>44859</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10602,7 +10602,7 @@
         <v>44864</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>44879</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>44886</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44896</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>44931</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>44937</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44953</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>45000</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>45000</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>45015</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>45019</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>45027</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>45033</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>45049</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         <v>45056</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         <v>45062</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11601,7 +11601,7 @@
         <v>45065</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>45065</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>45070</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>45070</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>45070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>45070</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>45075</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>45076</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>45079</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>45079</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>45082</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>45082</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>45088</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>45090</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>45090</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>45091</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>45104</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>45117</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>45138</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45145</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45147</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45147</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45149</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>

--- a/Översikt NORA.xlsx
+++ b/Översikt NORA.xlsx
@@ -572,7 +572,7 @@
         <v>44263</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44438</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44012</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44832</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>45048</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45070</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44439</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>44495</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43403</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43591</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>44172</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44347</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45078</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>45082</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43395</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43397</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43416</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43416</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43430</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43433</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43446</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43480</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>43493</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>43497</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43530</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43531</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43537</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43544</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43549</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43549</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43549</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43567</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43591</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43609</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43634</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43653</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43670</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43671</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43678</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43691</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43717</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>43745</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43749</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43759</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43762</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43802</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43839</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43856</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43871</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43887</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43888</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43893</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43893</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43894</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43903</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43912</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43914</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43917</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43924</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43935</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43935</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43941</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43957</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43957</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>43986</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43993</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43993</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>44005</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>44005</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>44012</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44032</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44053</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>44056</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>44060</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>44060</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>44061</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44071</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>44079</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>44088</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>44099</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>44106</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>44106</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44106</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44106</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>44107</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>44110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>44111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>44125</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>44132</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>44139</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>44153</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>44158</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44172</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>44172</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>44173</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>44173</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>44181</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>44200</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44232</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>44232</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>44235</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44238</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>44238</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44284</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>44292</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>44302</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>44308</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>44347</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>44362</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44375</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>44383</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44410</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44410</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44418</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44419</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44420</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44420</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44425</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44445</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44448</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44448</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44449</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44453</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44476</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>44476</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44491</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44491</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44493</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44503</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44519</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>44523</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>44523</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44530</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44530</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44532</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44533</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44537</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>44560</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>44593</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44606</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44631</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44631</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44714</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>44740</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44743</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44761</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44791</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>44799</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>44807</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44834</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44841</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44851</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>44859</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10602,7 +10602,7 @@
         <v>44864</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>44879</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>44886</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44896</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>44931</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>44937</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44953</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>45000</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>45000</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>45015</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>45019</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>45027</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>45033</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>45049</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         <v>45056</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         <v>45062</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11601,7 +11601,7 @@
         <v>45065</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>45065</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>45070</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>45070</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>45070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>45070</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>45075</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>45076</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>45079</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>45079</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>45082</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>45082</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>45088</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>45090</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>45090</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>45091</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>45104</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>45117</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>45138</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45145</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45147</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45147</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45149</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>

--- a/Översikt NORA.xlsx
+++ b/Översikt NORA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y205"/>
+  <dimension ref="A1:Y206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44263</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44438</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44012</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44832</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>45048</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45070</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44439</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>44495</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43403</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43591</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>44172</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44347</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45078</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>45082</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43395</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43397</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43416</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43416</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43430</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43433</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43446</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43480</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>43493</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>43497</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43530</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43531</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43537</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43544</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43549</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43549</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43549</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43567</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43591</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43609</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43634</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43653</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43670</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43671</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43678</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43691</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43717</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>43745</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43749</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43759</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43762</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43802</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43839</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43856</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43871</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43887</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43888</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43893</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43893</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43894</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43903</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43912</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43914</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43917</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43924</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43935</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43935</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43941</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43957</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43957</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>43986</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43993</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43993</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>44005</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>44005</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>44012</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44032</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44053</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>44056</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>44060</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>44060</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>44061</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44071</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>44079</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>44088</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>44099</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>44106</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>44106</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44106</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44106</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>44107</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>44110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>44111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>44125</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>44132</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>44139</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>44153</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>44158</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44172</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>44172</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>44173</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>44173</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>44181</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>44200</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44232</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>44232</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>44235</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44238</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>44238</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44284</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>44292</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>44302</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>44308</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>44347</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>44362</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44375</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>44383</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44410</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44410</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44418</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44419</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44420</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44420</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44425</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44445</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44448</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44448</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44449</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44453</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44476</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>44476</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44491</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44491</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44493</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44503</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44519</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>44523</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>44523</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44530</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44530</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44532</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44533</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44537</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>44560</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>44593</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44606</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44631</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44631</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44714</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>44740</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44743</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44761</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44791</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>44799</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>44807</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44834</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44841</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44851</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>44859</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10602,7 +10602,7 @@
         <v>44864</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>44879</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>44886</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44896</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>44931</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>44937</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44953</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>45000</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>45000</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>45015</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>45019</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>45027</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>45033</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>45049</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         <v>45056</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         <v>45062</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11601,7 +11601,7 @@
         <v>45065</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>45065</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>45070</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>45070</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>45070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>45070</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>45075</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>45076</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>45079</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>45079</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>45082</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>45082</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>45088</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>45090</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>45090</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>45091</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>45104</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>45117</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>45138</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45145</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45147</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45147</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
       </c>
       <c r="R204" s="2" t="inlineStr"/>
     </row>
-    <row r="205">
+    <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
           <t>A 36064-2023</t>
@@ -12900,7 +12900,7 @@
         <v>45149</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12946,6 +12946,63 @@
         <v>0</v>
       </c>
       <c r="R205" s="2" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>A 46444-2023</t>
+        </is>
+      </c>
+      <c r="B206" s="1" t="n">
+        <v>45197</v>
+      </c>
+      <c r="C206" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>NORA</t>
+        </is>
+      </c>
+      <c r="G206" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N206" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" t="n">
+        <v>0</v>
+      </c>
+      <c r="P206" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q206" t="n">
+        <v>0</v>
+      </c>
+      <c r="R206" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt NORA.xlsx
+++ b/Översikt NORA.xlsx
@@ -572,7 +572,7 @@
         <v>44263</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44438</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44012</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44832</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>45048</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45070</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44439</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>44495</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43403</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43591</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>44172</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44347</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45078</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>45082</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43395</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43397</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43416</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43416</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43430</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43433</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43446</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43480</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>43493</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>43497</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43530</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43531</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43537</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43544</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43549</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43549</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43549</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43567</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43591</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43609</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43634</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43653</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43670</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43671</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43678</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43691</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43717</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>43745</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43749</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43759</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43762</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43802</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43839</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43856</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43871</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43887</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43888</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43893</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43893</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43894</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43903</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43912</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43914</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43917</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43924</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43935</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43935</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43941</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43957</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43957</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>43986</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43993</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43993</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>44005</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>44005</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>44012</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44032</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44053</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>44056</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>44060</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>44060</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>44061</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44071</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>44079</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>44088</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>44099</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>44106</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>44106</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44106</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44106</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>44107</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>44110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>44111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>44125</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>44132</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>44139</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>44153</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>44158</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44172</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>44172</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>44173</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>44173</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>44181</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>44200</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44232</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>44232</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>44235</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44238</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>44238</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44284</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>44292</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>44302</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>44308</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>44347</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>44362</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44375</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>44383</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44410</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44410</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44418</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44419</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44420</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44420</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44425</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44445</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44448</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44448</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44449</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44453</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44476</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>44476</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44491</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44491</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44493</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44503</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44519</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>44523</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>44523</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44530</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44530</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44532</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44533</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44537</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>44560</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>44593</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44606</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44631</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44631</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44714</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>44740</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44743</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44761</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44791</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>44799</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>44807</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44834</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44841</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44851</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>44859</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10602,7 +10602,7 @@
         <v>44864</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>44879</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>44886</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44896</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>44931</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>44937</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44953</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>45000</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>45000</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>45015</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>45019</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>45027</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>45033</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>45049</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         <v>45056</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         <v>45062</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11601,7 +11601,7 @@
         <v>45065</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>45065</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>45070</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>45070</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>45070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>45070</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>45075</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>45076</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>45079</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>45079</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>45082</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>45082</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>45088</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>45090</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>45090</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>45091</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>45104</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>45117</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>45138</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45145</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45147</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45147</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45149</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>45197</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>

--- a/Översikt NORA.xlsx
+++ b/Översikt NORA.xlsx
@@ -572,7 +572,7 @@
         <v>44263</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44438</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44012</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44832</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>45048</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45070</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44439</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>44495</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43403</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43591</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>44172</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44347</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45078</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>45082</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43395</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43397</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43416</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43416</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43430</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43433</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43446</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43480</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>43493</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>43497</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43530</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43531</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43537</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43544</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43549</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43549</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43549</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43567</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43591</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43609</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43634</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43653</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43670</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43671</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43678</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43691</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43717</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>43745</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43749</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43759</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43762</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43802</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43839</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43856</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43871</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43887</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43888</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43893</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43893</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43894</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43903</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43912</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43914</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43917</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43924</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43935</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43935</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43941</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43957</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43957</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>43986</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43993</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43993</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>44005</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>44005</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>44012</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44032</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44053</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>44056</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>44060</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>44060</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>44061</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44071</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>44079</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>44088</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>44099</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>44106</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>44106</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44106</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44106</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>44107</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>44110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>44111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>44125</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>44132</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>44139</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>44153</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>44158</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44172</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>44172</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>44173</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>44173</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>44181</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>44200</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44232</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>44232</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>44235</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44238</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>44238</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44284</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>44292</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>44302</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>44308</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>44347</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>44362</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44375</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>44383</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44410</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44410</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44418</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44419</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44420</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44420</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44425</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44445</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44448</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44448</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44449</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44453</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44476</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>44476</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44491</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44491</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44493</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44503</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44519</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>44523</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>44523</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44530</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44530</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44532</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44533</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44537</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>44560</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>44593</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44606</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44631</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44631</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44714</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>44740</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44743</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44761</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44791</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>44799</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>44807</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44834</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44841</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44851</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>44859</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10602,7 +10602,7 @@
         <v>44864</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>44879</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>44886</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44896</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>44931</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>44937</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44953</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>45000</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>45000</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>45015</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>45019</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>45027</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>45033</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>45049</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         <v>45056</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         <v>45062</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11601,7 +11601,7 @@
         <v>45065</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>45065</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>45070</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>45070</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>45070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>45070</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>45075</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>45076</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>45079</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>45079</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>45082</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>45082</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>45088</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>45090</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>45090</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>45091</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>45104</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>45117</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>45138</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45145</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45147</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45147</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45149</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>45197</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>

--- a/Översikt NORA.xlsx
+++ b/Översikt NORA.xlsx
@@ -572,7 +572,7 @@
         <v>44263</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44438</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44012</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44832</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>45048</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45070</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44439</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>44495</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43403</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43591</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>44172</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44347</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45078</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>45082</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43395</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43397</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43416</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43416</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43430</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43433</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43446</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43480</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>43493</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>43497</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43530</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43531</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43537</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43544</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43549</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43549</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43549</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43567</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43591</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43609</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43634</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43653</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43670</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43671</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43678</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43691</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43717</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>43745</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43749</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43759</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43762</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43802</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43839</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43856</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43871</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43887</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43888</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43893</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43893</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43894</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43903</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43912</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43914</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43917</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43924</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43935</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43935</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43941</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43957</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43957</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>43986</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43993</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43993</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>44005</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>44005</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>44012</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44032</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44053</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>44056</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>44060</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>44060</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>44061</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44071</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>44079</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>44088</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>44099</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>44106</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>44106</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44106</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44106</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>44107</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>44110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>44111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>44125</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>44132</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>44139</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>44153</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>44158</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44172</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>44172</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>44173</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>44173</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>44181</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>44200</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44232</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>44232</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>44235</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44238</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>44238</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44284</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>44292</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>44302</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>44308</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>44347</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>44362</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44375</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>44383</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44410</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44410</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44418</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44419</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44420</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44420</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44425</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44445</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44448</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44448</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44449</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44453</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44476</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>44476</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44491</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44491</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44493</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44503</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44519</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>44523</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>44523</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44530</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44530</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44532</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44533</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44537</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>44560</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>44593</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44606</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44631</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44631</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44714</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>44740</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44743</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44761</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44791</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>44799</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>44807</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44834</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44841</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44851</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>44859</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10602,7 +10602,7 @@
         <v>44864</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>44879</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>44886</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44896</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>44931</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>44937</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44953</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>45000</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>45000</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>45015</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>45019</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>45027</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>45033</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>45049</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         <v>45056</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         <v>45062</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11601,7 +11601,7 @@
         <v>45065</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>45065</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>45070</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>45070</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>45070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>45070</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>45075</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>45076</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>45079</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>45079</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>45082</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>45082</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>45088</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>45090</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>45090</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>45091</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>45104</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>45117</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>45138</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45145</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45147</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45147</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45149</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>45197</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>

--- a/Översikt NORA.xlsx
+++ b/Översikt NORA.xlsx
@@ -572,7 +572,7 @@
         <v>44263</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44438</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44012</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44832</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>45048</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45070</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44439</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>44495</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43403</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43591</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>44172</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44347</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45078</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>45082</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43395</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43397</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43416</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43416</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43430</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43433</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43446</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43480</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>43493</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>43497</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43530</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43531</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43537</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43544</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43549</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43549</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43549</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43567</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43591</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43609</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43634</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43653</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43670</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43671</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43678</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43691</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43717</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>43745</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43749</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43759</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43762</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43802</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43839</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43856</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43871</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43887</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43888</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43893</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43893</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43894</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43903</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43912</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43914</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43917</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43924</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43935</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43935</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43941</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43957</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43957</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>43986</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43993</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43993</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>44005</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>44005</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>44012</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44032</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44053</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>44056</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>44060</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>44060</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>44061</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44071</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>44079</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>44088</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>44099</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>44106</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>44106</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44106</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44106</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>44107</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>44110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>44111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>44125</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>44132</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>44139</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>44153</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>44158</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44172</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>44172</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>44173</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>44173</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>44181</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>44200</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44232</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>44232</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>44235</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44238</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>44238</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44284</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>44292</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>44302</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>44308</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>44347</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>44362</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44375</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>44383</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44410</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44410</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44418</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44419</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44420</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44420</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44425</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44445</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44448</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44448</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44449</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44453</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44476</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>44476</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44491</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44491</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44493</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44503</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44519</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>44523</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>44523</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44530</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44530</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44532</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44533</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44537</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>44560</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>44593</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44606</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44631</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44631</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44714</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>44740</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44743</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44761</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44791</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>44799</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>44807</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44834</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44841</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44851</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>44859</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10602,7 +10602,7 @@
         <v>44864</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>44879</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>44886</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44896</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>44931</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>44937</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44953</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>45000</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>45000</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>45015</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>45019</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>45027</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>45033</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>45049</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         <v>45056</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         <v>45062</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11601,7 +11601,7 @@
         <v>45065</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>45065</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>45070</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>45070</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>45070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>45070</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>45075</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>45076</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>45079</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>45079</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>45082</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>45082</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>45088</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>45090</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>45090</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>45091</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>45104</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>45117</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>45138</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45145</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45147</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45147</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45149</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>45197</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
